--- a/resources/Cashius.xlsx
+++ b/resources/Cashius.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Features</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Alert/Message</t>
+  </si>
+  <si>
+    <t>Container + Layout</t>
   </si>
 </sst>
 </file>
@@ -489,14 +492,14 @@
   <dimension ref="C3:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -590,6 +593,9 @@
       </c>
       <c r="D9" t="s">
         <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
       </c>
       <c r="F9" t="s">
         <v>39</v>

--- a/resources/Cashius.xlsx
+++ b/resources/Cashius.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Features</t>
   </si>
@@ -148,13 +148,16 @@
   </si>
   <si>
     <t>Container + Layout</t>
+  </si>
+  <si>
+    <t>Budget Time-Frame</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +172,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -192,9 +203,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,7 +504,7 @@
   <dimension ref="C3:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -616,7 +628,7 @@
       <c r="D11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -624,7 +636,10 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" t="s">
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -632,7 +647,7 @@
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -640,7 +655,7 @@
       <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -648,12 +663,12 @@
       <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="3:6">
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -679,6 +694,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/resources/Cashius.xlsx
+++ b/resources/Cashius.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Features</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Budget Time-Frame</t>
+  </si>
+  <si>
+    <t>Sort by - Date, Category</t>
+  </si>
+  <si>
+    <t>… and Sort</t>
   </si>
 </sst>
 </file>
@@ -501,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:F22"/>
+  <dimension ref="C3:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -515,7 +521,7 @@
     <col min="6" max="6" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6">
+    <row r="3" spans="3:7">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="3:7">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -543,7 +549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="3:7">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -556,8 +562,11 @@
       <c r="F5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="3:6">
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -571,7 +580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:7">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -585,7 +594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="3:7">
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -598,8 +607,11 @@
       <c r="F8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="3:6">
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -613,7 +625,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="3:7">
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -621,7 +633,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="3:7">
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -632,7 +644,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
+    <row r="12" spans="3:7">
       <c r="C12" t="s">
         <v>9</v>
       </c>
@@ -643,7 +655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
+    <row r="13" spans="3:7">
       <c r="C13" t="s">
         <v>10</v>
       </c>
@@ -651,7 +663,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
+    <row r="14" spans="3:7">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -659,7 +671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="3:6">
+    <row r="15" spans="3:7">
       <c r="C15" t="s">
         <v>38</v>
       </c>
@@ -667,7 +679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
+    <row r="16" spans="3:7">
       <c r="F16" s="2" t="s">
         <v>35</v>
       </c>

--- a/resources/Cashius.xlsx
+++ b/resources/Cashius.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="113">
   <si>
     <t>Features</t>
   </si>
@@ -157,6 +157,204 @@
   </si>
   <si>
     <t>… and Sort</t>
+  </si>
+  <si>
+    <t>Icons</t>
+  </si>
+  <si>
+    <t>Relax</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Gym</t>
+  </si>
+  <si>
+    <t>Swimming</t>
+  </si>
+  <si>
+    <t>Shopping</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Groceries</t>
+  </si>
+  <si>
+    <t>Drugs</t>
+  </si>
+  <si>
+    <t>Clothes</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Snack</t>
+  </si>
+  <si>
+    <t>Travelling</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Car Rental</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Club</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>Pub</t>
+  </si>
+  <si>
+    <t>Festival</t>
+  </si>
+  <si>
+    <t>Cinema</t>
+  </si>
+  <si>
+    <t>Theatre</t>
+  </si>
+  <si>
+    <t>Gallery</t>
+  </si>
+  <si>
+    <t>Camp</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Hairstyle</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Massage</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Seminar</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>Public Transp.</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Transactions/History</t>
+  </si>
+  <si>
+    <t>Log In</t>
+  </si>
+  <si>
+    <t>Others based on Categories</t>
+  </si>
+  <si>
+    <t>Transaction Type</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Repeating</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Apply</t>
+  </si>
+  <si>
+    <t>Sub-Category</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Mode (Cash/Card)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Splash Screen Logo</t>
   </si>
 </sst>
 </file>
@@ -507,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:G22"/>
+  <dimension ref="C3:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -519,9 +717,12 @@
     <col min="4" max="4" width="46" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7">
+    <row r="3" spans="3:14">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,8 +735,14 @@
       <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="3:7">
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -545,11 +752,23 @@
       <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="3:7">
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -559,14 +778,20 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="3:7">
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -576,11 +801,17 @@
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="3:7">
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -590,11 +821,20 @@
       <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="3:7">
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14">
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -604,14 +844,20 @@
       <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="3:7">
+      <c r="K8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -624,16 +870,31 @@
       <c r="F9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="3:7">
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14">
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="3:7">
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14">
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -643,8 +904,14 @@
       <c r="F11" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="3:7">
+      <c r="K11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14">
       <c r="C12" t="s">
         <v>9</v>
       </c>
@@ -654,54 +921,265 @@
       <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="3:7">
+      <c r="K12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14">
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="3:7">
+      <c r="K13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14">
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="3:7">
+      <c r="J14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14">
       <c r="C15" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="3:7">
+      <c r="K15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14">
       <c r="F16" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="6:6">
+      <c r="K16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14">
+      <c r="K17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="6:14">
       <c r="F18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="6:6">
+      <c r="J18" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" t="s">
+        <v>95</v>
+      </c>
+      <c r="M18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="6:14">
       <c r="F19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="6:6">
+      <c r="K19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="6:14">
       <c r="F20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="6:6">
+      <c r="K20" t="s">
+        <v>70</v>
+      </c>
+      <c r="M20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="6:14">
+      <c r="K21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="6:14">
       <c r="F22" t="s">
         <v>42</v>
+      </c>
+      <c r="K22" t="s">
+        <v>69</v>
+      </c>
+      <c r="N22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="6:14">
+      <c r="F23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" t="s">
+        <v>71</v>
+      </c>
+      <c r="N23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="6:14">
+      <c r="K24" t="s">
+        <v>72</v>
+      </c>
+      <c r="N24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="6:14">
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" t="s">
+        <v>73</v>
+      </c>
+      <c r="N25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="6:14">
+      <c r="K26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="6:14">
+      <c r="K27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="6:14">
+      <c r="K28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="6:14">
+      <c r="K29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="6:14">
+      <c r="K30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="6:14">
+      <c r="K31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="6:14">
+      <c r="K32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33" t="s">
+        <v>81</v>
+      </c>
+      <c r="K33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11">
+      <c r="K34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11">
+      <c r="K35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11">
+      <c r="K36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11">
+      <c r="K37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11">
+      <c r="K38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11">
+      <c r="K39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11">
+      <c r="J40" t="s">
+        <v>89</v>
+      </c>
+      <c r="K40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="10:11">
+      <c r="K41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="10:11">
+      <c r="J42" t="s">
+        <v>92</v>
+      </c>
+      <c r="K42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="10:11">
+      <c r="K43" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Cashius.xlsx
+++ b/resources/Cashius.xlsx
@@ -708,7 +708,7 @@
   <dimension ref="C3:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/resources/Cashius.xlsx
+++ b/resources/Cashius.xlsx
@@ -708,7 +708,7 @@
   <dimension ref="C3:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -798,7 +798,7 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="2" t="s">

--- a/resources/Cashius.xlsx
+++ b/resources/Cashius.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
   <si>
     <t>Features</t>
   </si>
@@ -355,6 +355,12 @@
   </si>
   <si>
     <t>Splash Screen Logo</t>
+  </si>
+  <si>
+    <t>Basic Shapes for general categories</t>
+  </si>
+  <si>
+    <t>Concert</t>
   </si>
 </sst>
 </file>
@@ -705,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:N43"/>
+  <dimension ref="C3:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -738,7 +744,7 @@
       <c r="J3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -993,7 +999,7 @@
       </c>
     </row>
     <row r="18" spans="6:14">
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J18" t="s">
@@ -1040,7 +1046,7 @@
       </c>
     </row>
     <row r="22" spans="6:14">
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>42</v>
       </c>
       <c r="K22" t="s">
@@ -1092,6 +1098,9 @@
       <c r="K27" t="s">
         <v>75</v>
       </c>
+      <c r="M27" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="28" spans="6:14">
       <c r="K28" t="s">
@@ -1119,66 +1128,71 @@
       </c>
     </row>
     <row r="33" spans="10:11">
-      <c r="J33" t="s">
+      <c r="K33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11">
+      <c r="J34" t="s">
         <v>81</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K34" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="10:11">
-      <c r="K34" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="35" spans="10:11">
       <c r="K35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="10:11">
       <c r="K36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="10:11">
       <c r="K37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="10:11">
       <c r="K38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="10:11">
       <c r="K39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11">
+      <c r="K40" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="10:11">
-      <c r="J40" t="s">
+    <row r="41" spans="10:11">
+      <c r="J41" t="s">
         <v>89</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K41" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="10:11">
-      <c r="K41" t="s">
+    <row r="42" spans="10:11">
+      <c r="K42" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="10:11">
-      <c r="J42" t="s">
+    <row r="43" spans="10:11">
+      <c r="J43" t="s">
         <v>92</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="10:11">
-      <c r="K43" t="s">
+    <row r="44" spans="10:11">
+      <c r="K44" t="s">
         <v>94</v>
       </c>
     </row>

--- a/resources/Cashius.xlsx
+++ b/resources/Cashius.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="125">
   <si>
     <t>Features</t>
   </si>
@@ -361,6 +361,36 @@
   </si>
   <si>
     <t>Concert</t>
+  </si>
+  <si>
+    <t>Screen Transitions (ON/OFF)</t>
+  </si>
+  <si>
+    <t>Articles</t>
+  </si>
+  <si>
+    <t>Flash is Dead, Long Live HTML5!</t>
+  </si>
+  <si>
+    <t>Hybrid Adventures:</t>
+  </si>
+  <si>
+    <t>SPA</t>
+  </si>
+  <si>
+    <t>Native vs. Mobile</t>
+  </si>
+  <si>
+    <t>Hybrid Trend</t>
+  </si>
+  <si>
+    <t>iOS WebView, WebGL defaultly on, …</t>
+  </si>
+  <si>
+    <t>Canvas vs. HTML/CSS layout inconsistencies</t>
+  </si>
+  <si>
+    <t>Canvas vs. HTML/CSS performance</t>
   </si>
 </sst>
 </file>
@@ -714,7 +744,7 @@
   <dimension ref="C3:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -938,6 +968,9 @@
       <c r="C13" t="s">
         <v>10</v>
       </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
       <c r="F13" s="2" t="s">
         <v>28</v>
       </c>
@@ -990,7 +1023,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="6:14">
+    <row r="17" spans="4:14">
       <c r="K17" t="s">
         <v>65</v>
       </c>
@@ -998,7 +1031,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="6:14">
+    <row r="18" spans="4:14">
       <c r="F18" s="2" t="s">
         <v>32</v>
       </c>
@@ -1012,7 +1045,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="6:14">
+    <row r="19" spans="4:14">
       <c r="F19" t="s">
         <v>33</v>
       </c>
@@ -1023,7 +1056,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="6:14">
+    <row r="20" spans="4:14">
+      <c r="D20" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="F20" t="s">
         <v>34</v>
       </c>
@@ -1034,7 +1070,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="6:14">
+    <row r="21" spans="4:14">
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
       <c r="K21" t="s">
         <v>68</v>
       </c>
@@ -1045,7 +1084,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="6:14">
+    <row r="22" spans="4:14">
+      <c r="D22" t="s">
+        <v>122</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1056,7 +1098,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="6:14">
+    <row r="23" spans="4:14">
       <c r="F23" t="s">
         <v>47</v>
       </c>
@@ -1067,7 +1109,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="6:14">
+    <row r="24" spans="4:14">
+      <c r="D24" t="s">
+        <v>118</v>
+      </c>
       <c r="K24" t="s">
         <v>72</v>
       </c>
@@ -1075,7 +1120,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="6:14">
+    <row r="25" spans="4:14">
+      <c r="D25" t="s">
+        <v>119</v>
+      </c>
       <c r="J25" t="s">
         <v>48</v>
       </c>
@@ -1086,7 +1134,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="6:14">
+    <row r="26" spans="4:14">
+      <c r="D26" t="s">
+        <v>120</v>
+      </c>
       <c r="K26" t="s">
         <v>74</v>
       </c>
@@ -1094,7 +1145,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="6:14">
+    <row r="27" spans="4:14">
+      <c r="D27" t="s">
+        <v>121</v>
+      </c>
       <c r="K27" t="s">
         <v>75</v>
       </c>
@@ -1102,27 +1156,33 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="6:14">
+    <row r="28" spans="4:14">
+      <c r="D28" t="s">
+        <v>123</v>
+      </c>
       <c r="K28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="6:14">
+    <row r="29" spans="4:14">
+      <c r="D29" t="s">
+        <v>124</v>
+      </c>
       <c r="K29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="6:14">
+    <row r="30" spans="4:14">
       <c r="K30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="6:14">
+    <row r="31" spans="4:14">
       <c r="K31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="6:14">
+    <row r="32" spans="4:14">
       <c r="K32" t="s">
         <v>80</v>
       </c>

--- a/resources/Cashius.xlsx
+++ b/resources/Cashius.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -744,7 +742,7 @@
   <dimension ref="C3:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1260,28 +1258,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>